--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_compo_XAI_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>241.3219604492188</v>
+        <v>231.4110260009766</v>
       </c>
       <c r="G2" t="n">
-        <v>24.71574592590332</v>
+        <v>15.91077327728271</v>
       </c>
       <c r="H2" t="n">
-        <v>-405.2752685546875</v>
+        <v>-390.3106689453125</v>
       </c>
       <c r="I2" t="n">
-        <v>118.8443069458008</v>
+        <v>86.25614166259766</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>237.7489166259766</v>
+        <v>227.6649169921875</v>
       </c>
       <c r="G3" t="n">
-        <v>25.88280487060547</v>
+        <v>15.4799222946167</v>
       </c>
       <c r="H3" t="n">
-        <v>-403.7412414550781</v>
+        <v>-389.9568176269531</v>
       </c>
       <c r="I3" t="n">
-        <v>120.2527008056641</v>
+        <v>87.53044128417969</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2401580810547</v>
+        <v>224.0215301513672</v>
       </c>
       <c r="G4" t="n">
-        <v>27.18610763549805</v>
+        <v>15.43592643737793</v>
       </c>
       <c r="H4" t="n">
-        <v>-400.9788818359375</v>
+        <v>-388.4901123046875</v>
       </c>
       <c r="I4" t="n">
-        <v>120.8372192382812</v>
+        <v>88.48461151123047</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8050384521484</v>
+        <v>220.499755859375</v>
       </c>
       <c r="G5" t="n">
-        <v>28.61213302612305</v>
+        <v>15.76788425445557</v>
       </c>
       <c r="H5" t="n">
-        <v>-397.0715026855469</v>
+        <v>-385.9300537109375</v>
       </c>
       <c r="I5" t="n">
-        <v>120.687614440918</v>
+        <v>89.11549377441406</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>227.4527130126953</v>
+        <v>217.1170654296875</v>
       </c>
       <c r="G6" t="n">
-        <v>30.14643859863281</v>
+        <v>16.42634201049805</v>
       </c>
       <c r="H6" t="n">
-        <v>-392.099853515625</v>
+        <v>-382.301513671875</v>
       </c>
       <c r="I6" t="n">
-        <v>119.8917465209961</v>
+        <v>89.42070007324219</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>224.1920166015625</v>
+        <v>213.8889617919922</v>
       </c>
       <c r="G7" t="n">
-        <v>31.77404403686523</v>
+        <v>17.33811569213867</v>
       </c>
       <c r="H7" t="n">
-        <v>-386.1408386230469</v>
+        <v>-377.6336669921875</v>
       </c>
       <c r="I7" t="n">
-        <v>118.5332717895508</v>
+        <v>89.39865112304688</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>221.0315399169922</v>
+        <v>210.8289031982422</v>
       </c>
       <c r="G8" t="n">
-        <v>33.47986221313477</v>
+        <v>18.42378425598145</v>
       </c>
       <c r="H8" t="n">
-        <v>-379.2666015625</v>
+        <v>-371.9600524902344</v>
       </c>
       <c r="I8" t="n">
-        <v>116.689323425293</v>
+        <v>89.04872131347656</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>217.9793853759766</v>
+        <v>207.9480743408203</v>
       </c>
       <c r="G9" t="n">
-        <v>35.24894332885742</v>
+        <v>19.61050987243652</v>
       </c>
       <c r="H9" t="n">
-        <v>-371.5439147949219</v>
+        <v>-365.3175354003906</v>
       </c>
       <c r="I9" t="n">
-        <v>114.4297103881836</v>
+        <v>88.37111663818359</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>215.0431060791016</v>
+        <v>205.2554779052734</v>
       </c>
       <c r="G10" t="n">
-        <v>37.06665420532227</v>
+        <v>20.83788299560547</v>
       </c>
       <c r="H10" t="n">
-        <v>-363.034423828125</v>
+        <v>-357.7461242675781</v>
       </c>
       <c r="I10" t="n">
-        <v>111.8159484863281</v>
+        <v>87.36831665039062</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>212.2296142578125</v>
+        <v>202.7576293945312</v>
       </c>
       <c r="G11" t="n">
-        <v>38.91900634765625</v>
+        <v>22.05928993225098</v>
       </c>
       <c r="H11" t="n">
-        <v>-353.7944641113281</v>
+        <v>-349.2890319824219</v>
       </c>
       <c r="I11" t="n">
-        <v>108.9004516601562</v>
+        <v>86.0445556640625</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>209.5451049804688</v>
+        <v>200.4589080810547</v>
       </c>
       <c r="G12" t="n">
-        <v>40.79271697998047</v>
+        <v>23.24097442626953</v>
       </c>
       <c r="H12" t="n">
-        <v>-343.875732421875</v>
+        <v>-339.9923706054688</v>
       </c>
       <c r="I12" t="n">
-        <v>105.7271881103516</v>
+        <v>84.40721130371094</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>206.994873046875</v>
+        <v>198.3614349365234</v>
       </c>
       <c r="G13" t="n">
-        <v>42.67543792724609</v>
+        <v>24.36008262634277</v>
       </c>
       <c r="H13" t="n">
-        <v>-333.3256225585938</v>
+        <v>-329.9053344726562</v>
       </c>
       <c r="I13" t="n">
-        <v>102.331413269043</v>
+        <v>82.46671295166016</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>204.5833892822266</v>
+        <v>196.4654083251953</v>
       </c>
       <c r="G14" t="n">
-        <v>44.55579376220703</v>
+        <v>25.40290641784668</v>
       </c>
       <c r="H14" t="n">
-        <v>-322.1885986328125</v>
+        <v>-319.080322265625</v>
       </c>
       <c r="I14" t="n">
-        <v>98.74044036865234</v>
+        <v>80.23759460449219</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>202.3140411376953</v>
+        <v>194.7691040039062</v>
       </c>
       <c r="G15" t="n">
-        <v>46.4237060546875</v>
+        <v>26.36306953430176</v>
       </c>
       <c r="H15" t="n">
-        <v>-310.5062866210938</v>
+        <v>-307.5731506347656</v>
       </c>
       <c r="I15" t="n">
-        <v>94.97440338134766</v>
+        <v>77.73835754394531</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>200.1892852783203</v>
+        <v>193.2692718505859</v>
       </c>
       <c r="G16" t="n">
-        <v>48.27017593383789</v>
+        <v>27.24000549316406</v>
       </c>
       <c r="H16" t="n">
-        <v>-298.3192749023438</v>
+        <v>-295.4435424804688</v>
       </c>
       <c r="I16" t="n">
-        <v>91.04766082763672</v>
+        <v>74.99250030517578</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>198.2105560302734</v>
+        <v>191.9611358642578</v>
       </c>
       <c r="G17" t="n">
-        <v>50.08755874633789</v>
+        <v>28.03778457641602</v>
       </c>
       <c r="H17" t="n">
-        <v>-285.6678466796875</v>
+        <v>-282.7549133300781</v>
       </c>
       <c r="I17" t="n">
-        <v>86.96963500976562</v>
+        <v>72.02833557128906</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>196.3782196044922</v>
+        <v>190.8386383056641</v>
       </c>
       <c r="G18" t="n">
-        <v>51.86943817138672</v>
+        <v>28.76395225524902</v>
       </c>
       <c r="H18" t="n">
-        <v>-272.5929565429688</v>
+        <v>-269.5752258300781</v>
       </c>
       <c r="I18" t="n">
-        <v>82.74694061279297</v>
+        <v>68.87935638427734</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>194.6917114257812</v>
+        <v>189.894775390625</v>
       </c>
       <c r="G19" t="n">
-        <v>53.61076354980469</v>
+        <v>29.42861366271973</v>
       </c>
       <c r="H19" t="n">
-        <v>-259.1377563476562</v>
+        <v>-255.9761962890625</v>
       </c>
       <c r="I19" t="n">
-        <v>78.384765625</v>
+        <v>65.58435821533203</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>193.1495819091797</v>
+        <v>189.1215209960938</v>
       </c>
       <c r="G20" t="n">
-        <v>55.30749130249023</v>
+        <v>30.04373741149902</v>
       </c>
       <c r="H20" t="n">
-        <v>-245.3482208251953</v>
+        <v>-242.0338897705078</v>
       </c>
       <c r="I20" t="n">
-        <v>73.88854217529297</v>
+        <v>62.18632125854492</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>191.7494506835938</v>
+        <v>188.5102081298828</v>
       </c>
       <c r="G21" t="n">
-        <v>56.95687866210938</v>
+        <v>30.62240600585938</v>
       </c>
       <c r="H21" t="n">
-        <v>-231.2738800048828</v>
+        <v>-227.8279266357422</v>
       </c>
       <c r="I21" t="n">
-        <v>69.26589965820312</v>
+        <v>58.73228073120117</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>190.4882202148438</v>
+        <v>188.0515289306641</v>
       </c>
       <c r="G22" t="n">
-        <v>58.55708694458008</v>
+        <v>31.1784553527832</v>
       </c>
       <c r="H22" t="n">
-        <v>-216.9686889648438</v>
+        <v>-213.4408569335938</v>
       </c>
       <c r="I22" t="n">
-        <v>64.52790832519531</v>
+        <v>55.27142333984375</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>189.3619842529297</v>
+        <v>187.7359008789062</v>
       </c>
       <c r="G23" t="n">
-        <v>60.10720443725586</v>
+        <v>31.72586441040039</v>
       </c>
       <c r="H23" t="n">
-        <v>-202.4915924072266</v>
+        <v>-198.9571990966797</v>
       </c>
       <c r="I23" t="n">
-        <v>59.69081497192383</v>
+        <v>51.85372161865234</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>188.3663482666016</v>
+        <v>187.55322265625</v>
       </c>
       <c r="G24" t="n">
-        <v>61.60720825195312</v>
+        <v>32.27852630615234</v>
       </c>
       <c r="H24" t="n">
-        <v>-187.9061737060547</v>
+        <v>-184.4624176025391</v>
       </c>
       <c r="I24" t="n">
-        <v>54.77691650390625</v>
+        <v>48.52776718139648</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>187.496337890625</v>
+        <v>187.4934692382812</v>
       </c>
       <c r="G25" t="n">
-        <v>63.05767822265625</v>
+        <v>32.84987640380859</v>
       </c>
       <c r="H25" t="n">
-        <v>-173.2807006835938</v>
+        <v>-170.0415191650391</v>
       </c>
       <c r="I25" t="n">
-        <v>49.81612777709961</v>
+        <v>45.33909606933594</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>186.7465362548828</v>
+        <v>187.5464477539062</v>
       </c>
       <c r="G26" t="n">
-        <v>64.45981597900391</v>
+        <v>33.45269775390625</v>
       </c>
       <c r="H26" t="n">
-        <v>-158.6876983642578</v>
+        <v>-155.7773895263672</v>
       </c>
       <c r="I26" t="n">
-        <v>44.84610748291016</v>
+        <v>42.32829284667969</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>186.1111602783203</v>
+        <v>187.7021331787109</v>
       </c>
       <c r="G27" t="n">
-        <v>65.81531524658203</v>
+        <v>34.09887313842773</v>
       </c>
       <c r="H27" t="n">
-        <v>-144.2028961181641</v>
+        <v>-141.7496185302734</v>
       </c>
       <c r="I27" t="n">
-        <v>39.91416549682617</v>
+        <v>39.53006362915039</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>185.5841674804688</v>
+        <v>187.9506683349609</v>
       </c>
       <c r="G28" t="n">
-        <v>67.12633514404297</v>
+        <v>34.79920959472656</v>
       </c>
       <c r="H28" t="n">
-        <v>-129.9043426513672</v>
+        <v>-128.0328826904297</v>
       </c>
       <c r="I28" t="n">
-        <v>35.07831192016602</v>
+        <v>36.97293090820312</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>185.1592559814453</v>
+        <v>188.2824096679688</v>
       </c>
       <c r="G29" t="n">
-        <v>68.39523315429688</v>
+        <v>35.56333160400391</v>
       </c>
       <c r="H29" t="n">
-        <v>-115.8709335327148</v>
+        <v>-114.6957397460938</v>
       </c>
       <c r="I29" t="n">
-        <v>30.41015434265137</v>
+        <v>34.68011856079102</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>184.8300170898438</v>
+        <v>188.6881561279297</v>
       </c>
       <c r="G30" t="n">
-        <v>69.62482452392578</v>
+        <v>36.39966583251953</v>
       </c>
       <c r="H30" t="n">
-        <v>-102.1808776855469</v>
+        <v>-101.7998580932617</v>
       </c>
       <c r="I30" t="n">
-        <v>26.00015449523926</v>
+        <v>32.67106246948242</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_compo_XAI_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_compo_XAI_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>231.4110260009766</v>
+        <v>242.7852325439453</v>
       </c>
       <c r="G2" t="n">
-        <v>15.91077327728271</v>
+        <v>23.28422737121582</v>
       </c>
       <c r="H2" t="n">
-        <v>-390.3106689453125</v>
+        <v>-399.5347595214844</v>
       </c>
       <c r="I2" t="n">
-        <v>86.25614166259766</v>
+        <v>106.1180953979492</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>227.6649169921875</v>
+        <v>238.8608245849609</v>
       </c>
       <c r="G3" t="n">
-        <v>15.4799222946167</v>
+        <v>22.63492393493652</v>
       </c>
       <c r="H3" t="n">
-        <v>-389.9568176269531</v>
+        <v>-397.675048828125</v>
       </c>
       <c r="I3" t="n">
-        <v>87.53044128417969</v>
+        <v>108.3168487548828</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>224.0215301513672</v>
+        <v>235.0715484619141</v>
       </c>
       <c r="G4" t="n">
-        <v>15.43592643737793</v>
+        <v>22.05470085144043</v>
       </c>
       <c r="H4" t="n">
-        <v>-388.4901123046875</v>
+        <v>-394.5228271484375</v>
       </c>
       <c r="I4" t="n">
-        <v>88.48461151123047</v>
+        <v>109.7192764282227</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>220.499755859375</v>
+        <v>231.4346466064453</v>
       </c>
       <c r="G5" t="n">
-        <v>15.76788425445557</v>
+        <v>21.57080078125</v>
       </c>
       <c r="H5" t="n">
-        <v>-385.9300537109375</v>
+        <v>-390.1499328613281</v>
       </c>
       <c r="I5" t="n">
-        <v>89.11549377441406</v>
+        <v>110.3838806152344</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>217.1170654296875</v>
+        <v>227.9660491943359</v>
       </c>
       <c r="G6" t="n">
-        <v>16.42634201049805</v>
+        <v>21.21090507507324</v>
       </c>
       <c r="H6" t="n">
-        <v>-382.301513671875</v>
+        <v>-384.6302795410156</v>
       </c>
       <c r="I6" t="n">
-        <v>89.42070007324219</v>
+        <v>110.3692855834961</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>213.8889617919922</v>
+        <v>224.6798858642578</v>
       </c>
       <c r="G7" t="n">
-        <v>17.33811569213867</v>
+        <v>21.00136947631836</v>
       </c>
       <c r="H7" t="n">
-        <v>-377.6336669921875</v>
+        <v>-378.0389404296875</v>
       </c>
       <c r="I7" t="n">
-        <v>89.39865112304688</v>
+        <v>109.7332916259766</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>210.8289031982422</v>
+        <v>221.5885620117188</v>
       </c>
       <c r="G8" t="n">
-        <v>18.42378425598145</v>
+        <v>20.96537971496582</v>
       </c>
       <c r="H8" t="n">
-        <v>-371.9600524902344</v>
+        <v>-370.4505615234375</v>
       </c>
       <c r="I8" t="n">
-        <v>89.04872131347656</v>
+        <v>108.5317459106445</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>207.9480743408203</v>
+        <v>218.7024688720703</v>
       </c>
       <c r="G9" t="n">
-        <v>19.61050987243652</v>
+        <v>21.12064743041992</v>
       </c>
       <c r="H9" t="n">
-        <v>-365.3175354003906</v>
+        <v>-361.9393615722656</v>
       </c>
       <c r="I9" t="n">
-        <v>88.37111663818359</v>
+        <v>106.8186798095703</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>205.2554779052734</v>
+        <v>216.0299224853516</v>
       </c>
       <c r="G10" t="n">
-        <v>20.83788299560547</v>
+        <v>21.47780799865723</v>
       </c>
       <c r="H10" t="n">
-        <v>-357.7461242675781</v>
+        <v>-352.5782470703125</v>
       </c>
       <c r="I10" t="n">
-        <v>87.36831665039062</v>
+        <v>104.6453475952148</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>202.7576293945312</v>
+        <v>213.5771331787109</v>
       </c>
       <c r="G11" t="n">
-        <v>22.05928993225098</v>
+        <v>22.03932762145996</v>
       </c>
       <c r="H11" t="n">
-        <v>-349.2890319824219</v>
+        <v>-342.4385986328125</v>
       </c>
       <c r="I11" t="n">
-        <v>86.0445556640625</v>
+        <v>102.0607223510742</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>200.4589080810547</v>
+        <v>211.3480682373047</v>
       </c>
       <c r="G12" t="n">
-        <v>23.24097442626953</v>
+        <v>22.79973220825195</v>
       </c>
       <c r="H12" t="n">
-        <v>-339.9923706054688</v>
+        <v>-331.5901184082031</v>
       </c>
       <c r="I12" t="n">
-        <v>84.40721130371094</v>
+        <v>99.11102294921875</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3614349365234</v>
+        <v>209.3447723388672</v>
       </c>
       <c r="G13" t="n">
-        <v>24.36008262634277</v>
+        <v>23.7467041015625</v>
       </c>
       <c r="H13" t="n">
-        <v>-329.9053344726562</v>
+        <v>-320.1014099121094</v>
       </c>
       <c r="I13" t="n">
-        <v>82.46671295166016</v>
+        <v>95.839599609375</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>196.4654083251953</v>
+        <v>207.5671844482422</v>
       </c>
       <c r="G14" t="n">
-        <v>25.40290641784668</v>
+        <v>24.8628044128418</v>
       </c>
       <c r="H14" t="n">
-        <v>-319.080322265625</v>
+        <v>-308.039306640625</v>
       </c>
       <c r="I14" t="n">
-        <v>80.23759460449219</v>
+        <v>92.28687286376953</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>194.7691040039062</v>
+        <v>206.0133514404297</v>
       </c>
       <c r="G15" t="n">
-        <v>26.36306953430176</v>
+        <v>26.12750625610352</v>
       </c>
       <c r="H15" t="n">
-        <v>-307.5731506347656</v>
+        <v>-295.469482421875</v>
       </c>
       <c r="I15" t="n">
-        <v>77.73835754394531</v>
+        <v>88.49076843261719</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>193.2692718505859</v>
+        <v>204.6797027587891</v>
       </c>
       <c r="G16" t="n">
-        <v>27.24000549316406</v>
+        <v>27.5187931060791</v>
       </c>
       <c r="H16" t="n">
-        <v>-295.4435424804688</v>
+        <v>-282.4566650390625</v>
       </c>
       <c r="I16" t="n">
-        <v>74.99250030517578</v>
+        <v>84.48603820800781</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>191.9611358642578</v>
+        <v>203.5609741210938</v>
       </c>
       <c r="G17" t="n">
-        <v>28.03778457641602</v>
+        <v>29.01460838317871</v>
       </c>
       <c r="H17" t="n">
-        <v>-282.7549133300781</v>
+        <v>-269.0650634765625</v>
       </c>
       <c r="I17" t="n">
-        <v>72.02833557128906</v>
+        <v>80.30540466308594</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>190.8386383056641</v>
+        <v>202.6505889892578</v>
       </c>
       <c r="G18" t="n">
-        <v>28.76395225524902</v>
+        <v>30.59373092651367</v>
       </c>
       <c r="H18" t="n">
-        <v>-269.5752258300781</v>
+        <v>-255.3583831787109</v>
       </c>
       <c r="I18" t="n">
-        <v>68.87935638427734</v>
+        <v>75.97956848144531</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>189.894775390625</v>
+        <v>201.9407501220703</v>
       </c>
       <c r="G19" t="n">
-        <v>29.42861366271973</v>
+        <v>32.23637390136719</v>
       </c>
       <c r="H19" t="n">
-        <v>-255.9761962890625</v>
+        <v>-241.4001922607422</v>
       </c>
       <c r="I19" t="n">
-        <v>65.58435821533203</v>
+        <v>71.53804016113281</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>189.1215209960938</v>
+        <v>201.422607421875</v>
       </c>
       <c r="G20" t="n">
-        <v>30.04373741149902</v>
+        <v>33.92451477050781</v>
       </c>
       <c r="H20" t="n">
-        <v>-242.0338897705078</v>
+        <v>-227.254150390625</v>
       </c>
       <c r="I20" t="n">
-        <v>62.18632125854492</v>
+        <v>67.01061248779297</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>188.5102081298828</v>
+        <v>201.0865478515625</v>
       </c>
       <c r="G21" t="n">
-        <v>30.62240600585938</v>
+        <v>35.64191436767578</v>
       </c>
       <c r="H21" t="n">
-        <v>-227.8279266357422</v>
+        <v>-212.9839935302734</v>
       </c>
       <c r="I21" t="n">
-        <v>58.73228073120117</v>
+        <v>62.42831420898438</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>188.0515289306641</v>
+        <v>200.9221954345703</v>
       </c>
       <c r="G22" t="n">
-        <v>31.1784553527832</v>
+        <v>37.37422561645508</v>
       </c>
       <c r="H22" t="n">
-        <v>-213.4408569335938</v>
+        <v>-198.6537017822266</v>
       </c>
       <c r="I22" t="n">
-        <v>55.27142333984375</v>
+        <v>57.82537841796875</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7359008789062</v>
+        <v>200.9187469482422</v>
       </c>
       <c r="G23" t="n">
-        <v>31.72586441040039</v>
+        <v>39.10884857177734</v>
       </c>
       <c r="H23" t="n">
-        <v>-198.9571990966797</v>
+        <v>-184.3272705078125</v>
       </c>
       <c r="I23" t="n">
-        <v>51.85372161865234</v>
+        <v>53.24123382568359</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>187.55322265625</v>
+        <v>201.0650787353516</v>
       </c>
       <c r="G24" t="n">
-        <v>32.27852630615234</v>
+        <v>40.83486557006836</v>
       </c>
       <c r="H24" t="n">
-        <v>-184.4624176025391</v>
+        <v>-170.0687103271484</v>
       </c>
       <c r="I24" t="n">
-        <v>48.52776718139648</v>
+        <v>48.72285842895508</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>187.4934692382812</v>
+        <v>201.3498382568359</v>
       </c>
       <c r="G25" t="n">
-        <v>32.84987640380859</v>
+        <v>42.54291534423828</v>
       </c>
       <c r="H25" t="n">
-        <v>-170.0415191650391</v>
+        <v>-155.9412078857422</v>
       </c>
       <c r="I25" t="n">
-        <v>45.33909606933594</v>
+        <v>44.32762145996094</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>187.5464477539062</v>
+        <v>201.761474609375</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45269775390625</v>
+        <v>44.22513198852539</v>
       </c>
       <c r="H26" t="n">
-        <v>-155.7773895263672</v>
+        <v>-142.0070190429688</v>
       </c>
       <c r="I26" t="n">
-        <v>42.32829284667969</v>
+        <v>40.12660598754883</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>187.7021331787109</v>
+        <v>202.2886352539062</v>
       </c>
       <c r="G27" t="n">
-        <v>34.09887313842773</v>
+        <v>45.87491989135742</v>
       </c>
       <c r="H27" t="n">
-        <v>-141.7496185302734</v>
+        <v>-128.3267974853516</v>
       </c>
       <c r="I27" t="n">
-        <v>39.53006362915039</v>
+        <v>36.20808792114258</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>187.9506683349609</v>
+        <v>202.919921875</v>
       </c>
       <c r="G28" t="n">
-        <v>34.79920959472656</v>
+        <v>47.48683166503906</v>
       </c>
       <c r="H28" t="n">
-        <v>-128.0328826904297</v>
+        <v>-114.958740234375</v>
       </c>
       <c r="I28" t="n">
-        <v>36.97293090820312</v>
+        <v>32.68044281005859</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>188.2824096679688</v>
+        <v>203.6442108154297</v>
       </c>
       <c r="G29" t="n">
-        <v>35.56333160400391</v>
+        <v>49.05663681030273</v>
       </c>
       <c r="H29" t="n">
-        <v>-114.6957397460938</v>
+        <v>-101.9578857421875</v>
       </c>
       <c r="I29" t="n">
-        <v>34.68011856079102</v>
+        <v>29.67190742492676</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>188.6881561279297</v>
+        <v>204.4506072998047</v>
       </c>
       <c r="G30" t="n">
-        <v>36.39966583251953</v>
+        <v>50.58103942871094</v>
       </c>
       <c r="H30" t="n">
-        <v>-101.7998580932617</v>
+        <v>-89.37551879882812</v>
       </c>
       <c r="I30" t="n">
-        <v>32.67106246948242</v>
+        <v>27.32113265991211</v>
       </c>
     </row>
   </sheetData>
